--- a/Assets/Resources/MasterData/StageData.xlsx
+++ b/Assets/Resources/MasterData/StageData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\DeepBlind\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ban10\Documents\Unity\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23CF37B-A879-46F7-875D-4819663586AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CD6C31-AD43-4351-A04C-3ECCF8F76102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>roomCount</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>widthSize</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>heightSize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>normalRoomCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addRoomCount</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -384,39 +388,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G11" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/StageData.xlsx
+++ b/Assets/Resources/MasterData/StageData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ban10\Documents\Unity\DeepBlind\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CD6C31-AD43-4351-A04C-3ECCF8F76102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C5E6E0-11ED-4B9E-BFED-4342078CFE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G10:G11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -418,20 +418,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/MasterData/StageData.xlsx
+++ b/Assets/Resources/MasterData/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C5E6E0-11ED-4B9E-BFED-4342078CFE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49469F19-D9E3-4C6C-8A23-FF17267C44EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageData" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -418,13 +418,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>

--- a/Assets/Resources/MasterData/StageData.xlsx
+++ b/Assets/Resources/MasterData/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49469F19-D9E3-4C6C-8A23-FF17267C44EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEEAB75-811C-4330-8642-CCC522EDEFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageData" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -418,16 +418,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/StageData.xlsx
+++ b/Assets/Resources/MasterData/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEEAB75-811C-4330-8642-CCC522EDEFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5023E7F2-4228-41A6-9E7A-3226E97A5D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="-13170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageData" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -418,13 +418,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>

--- a/Assets/Resources/MasterData/StageData.xlsx
+++ b/Assets/Resources/MasterData/StageData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\DeepBlind\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5023E7F2-4228-41A6-9E7A-3226E97A5D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B0ABA0-98BC-43B8-824F-1BCB2DE7EF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="-13170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="825" windowWidth="21600" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageData" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -418,13 +418,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>

--- a/Assets/Resources/MasterData/StageData.xlsx
+++ b/Assets/Resources/MasterData/StageData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\DeepBlind\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B0ABA0-98BC-43B8-824F-1BCB2DE7EF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADFA60E-3647-42F9-8614-3541C0D45345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="825" windowWidth="21600" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="1965" windowWidth="10695" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageData" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -418,16 +418,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
